--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.577136</v>
+        <v>6.396964666666666</v>
       </c>
       <c r="H2">
-        <v>7.731408</v>
+        <v>19.190894</v>
       </c>
       <c r="I2">
-        <v>0.003954353169814818</v>
+        <v>0.009663710401765491</v>
       </c>
       <c r="J2">
-        <v>0.003954353169814818</v>
+        <v>0.009663710401765493</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N2">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O2">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P2">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q2">
-        <v>0.910228972384</v>
+        <v>1.064749180908</v>
       </c>
       <c r="R2">
-        <v>8.192060751456001</v>
+        <v>9.582742628171999</v>
       </c>
       <c r="S2">
-        <v>6.858787447836477E-05</v>
+        <v>8.31762211695783E-05</v>
       </c>
       <c r="T2">
-        <v>6.858787447836477E-05</v>
+        <v>8.317622116957833E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.577136</v>
+        <v>6.396964666666666</v>
       </c>
       <c r="H3">
-        <v>7.731408</v>
+        <v>19.190894</v>
       </c>
       <c r="I3">
-        <v>0.003954353169814818</v>
+        <v>0.009663710401765491</v>
       </c>
       <c r="J3">
-        <v>0.003954353169814818</v>
+        <v>0.009663710401765493</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.670859</v>
       </c>
       <c r="O3">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P3">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q3">
-        <v>4.871524959941333</v>
+        <v>12.09209488421622</v>
       </c>
       <c r="R3">
-        <v>43.843724639472</v>
+        <v>108.828853957946</v>
       </c>
       <c r="S3">
-        <v>0.0003670807594660019</v>
+        <v>0.0009446119109811264</v>
       </c>
       <c r="T3">
-        <v>0.0003670807594660019</v>
+        <v>0.0009446119109811267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.577136</v>
+        <v>6.396964666666666</v>
       </c>
       <c r="H4">
-        <v>7.731408</v>
+        <v>19.190894</v>
       </c>
       <c r="I4">
-        <v>0.003954353169814818</v>
+        <v>0.009663710401765491</v>
       </c>
       <c r="J4">
-        <v>0.003954353169814818</v>
+        <v>0.009663710401765493</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N4">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O4">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P4">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q4">
-        <v>46.11601981248533</v>
+        <v>109.6078485948725</v>
       </c>
       <c r="R4">
-        <v>415.0441783123679</v>
+        <v>986.470637353852</v>
       </c>
       <c r="S4">
-        <v>0.003474949572365563</v>
+        <v>0.008562360807710733</v>
       </c>
       <c r="T4">
-        <v>0.003474949572365563</v>
+        <v>0.008562360807710735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.577136</v>
+        <v>6.396964666666666</v>
       </c>
       <c r="H5">
-        <v>7.731408</v>
+        <v>19.190894</v>
       </c>
       <c r="I5">
-        <v>0.003954353169814818</v>
+        <v>0.009663710401765491</v>
       </c>
       <c r="J5">
-        <v>0.003954353169814818</v>
+        <v>0.009663710401765493</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N5">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O5">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P5">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q5">
-        <v>0.5804062480586666</v>
+        <v>0.9416694483997778</v>
       </c>
       <c r="R5">
-        <v>5.223656232528</v>
+        <v>8.475025035598001</v>
       </c>
       <c r="S5">
-        <v>4.373496350488858E-05</v>
+        <v>7.35614619040523E-05</v>
       </c>
       <c r="T5">
-        <v>4.373496350488858E-05</v>
+        <v>7.356146190405233E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1715.910706</v>
       </c>
       <c r="I6">
-        <v>0.8776301728469489</v>
+        <v>0.8640589718265844</v>
       </c>
       <c r="J6">
-        <v>0.877630172846949</v>
+        <v>0.8640589718265844</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N6">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O6">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P6">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q6">
-        <v>202.0164552983213</v>
+        <v>95.20215779029199</v>
       </c>
       <c r="R6">
-        <v>1818.148097684892</v>
+        <v>856.8194201126279</v>
       </c>
       <c r="S6">
-        <v>0.01522241073284585</v>
+        <v>0.007437015096300529</v>
       </c>
       <c r="T6">
-        <v>0.01522241073284586</v>
+        <v>0.007437015096300531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1715.910706</v>
       </c>
       <c r="I7">
-        <v>0.8776301728469489</v>
+        <v>0.8640589718265844</v>
       </c>
       <c r="J7">
-        <v>0.877630172846949</v>
+        <v>0.8640589718265844</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.670859</v>
       </c>
       <c r="O7">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P7">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q7">
         <v>1081.18751892405</v>
@@ -883,10 +883,10 @@
         <v>9730.687670316454</v>
       </c>
       <c r="S7">
-        <v>0.08146999940170323</v>
+        <v>0.08446035349200687</v>
       </c>
       <c r="T7">
-        <v>0.08146999940170324</v>
+        <v>0.08446035349200688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1715.910706</v>
       </c>
       <c r="I8">
-        <v>0.8776301728469489</v>
+        <v>0.8640589718265844</v>
       </c>
       <c r="J8">
-        <v>0.877630172846949</v>
+        <v>0.8640589718265844</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N8">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O8">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P8">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q8">
-        <v>10235.00145307966</v>
+        <v>9800.339727037663</v>
       </c>
       <c r="R8">
-        <v>92115.01307771691</v>
+        <v>88203.05754333895</v>
       </c>
       <c r="S8">
-        <v>0.7712312135166314</v>
+        <v>0.7655842702578449</v>
       </c>
       <c r="T8">
-        <v>0.7712312135166315</v>
+        <v>0.7655842702578449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1715.910706</v>
       </c>
       <c r="I9">
-        <v>0.8776301728469489</v>
+        <v>0.8640589718265844</v>
       </c>
       <c r="J9">
-        <v>0.877630172846949</v>
+        <v>0.8640589718265844</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N9">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O9">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P9">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q9">
-        <v>128.8155139236162</v>
+        <v>84.19725980573357</v>
       </c>
       <c r="R9">
-        <v>1159.339625312546</v>
+        <v>757.775338251602</v>
       </c>
       <c r="S9">
-        <v>0.009706549195768431</v>
+        <v>0.006577332980431995</v>
       </c>
       <c r="T9">
-        <v>0.009706549195768433</v>
+        <v>0.006577332980431996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>77.07861566666666</v>
+        <v>83.18644966666666</v>
       </c>
       <c r="H10">
-        <v>231.235847</v>
+        <v>249.559349</v>
       </c>
       <c r="I10">
-        <v>0.118269299015039</v>
+        <v>0.1256673752035275</v>
       </c>
       <c r="J10">
-        <v>0.118269299015039</v>
+        <v>0.1256673752035275</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N10">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O10">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P10">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q10">
-        <v>27.22370458177267</v>
+        <v>13.846051801218</v>
       </c>
       <c r="R10">
-        <v>245.013341235954</v>
+        <v>124.614466210962</v>
       </c>
       <c r="S10">
-        <v>0.002051369588687386</v>
+        <v>0.001081627755713724</v>
       </c>
       <c r="T10">
-        <v>0.002051369588687386</v>
+        <v>0.001081627755713725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>77.07861566666666</v>
+        <v>83.18644966666666</v>
       </c>
       <c r="H11">
-        <v>231.235847</v>
+        <v>249.559349</v>
       </c>
       <c r="I11">
-        <v>0.118269299015039</v>
+        <v>0.1256673752035275</v>
       </c>
       <c r="J11">
-        <v>0.118269299015039</v>
+        <v>0.1256673752035275</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.670859</v>
       </c>
       <c r="O11">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P11">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q11">
-        <v>145.7006537869526</v>
+        <v>157.2462089234212</v>
       </c>
       <c r="R11">
-        <v>1311.305884082573</v>
+        <v>1415.215880310791</v>
       </c>
       <c r="S11">
-        <v>0.01097888383752665</v>
+        <v>0.01228378071194056</v>
       </c>
       <c r="T11">
-        <v>0.01097888383752665</v>
+        <v>0.01228378071194056</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>77.07861566666666</v>
+        <v>83.18644966666666</v>
       </c>
       <c r="H12">
-        <v>231.235847</v>
+        <v>249.559349</v>
       </c>
       <c r="I12">
-        <v>0.118269299015039</v>
+        <v>0.1256673752035275</v>
       </c>
       <c r="J12">
-        <v>0.118269299015039</v>
+        <v>0.1256673752035275</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N12">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O12">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P12">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q12">
-        <v>1379.267127230748</v>
+        <v>1425.345965676582</v>
       </c>
       <c r="R12">
-        <v>12413.40414507674</v>
+        <v>12828.11369108924</v>
       </c>
       <c r="S12">
-        <v>0.1039309926016372</v>
+        <v>0.1113453697923299</v>
       </c>
       <c r="T12">
-        <v>0.1039309926016372</v>
+        <v>0.1113453697923299</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>77.07861566666666</v>
+        <v>83.18644966666666</v>
       </c>
       <c r="H13">
-        <v>231.235847</v>
+        <v>249.559349</v>
       </c>
       <c r="I13">
-        <v>0.118269299015039</v>
+        <v>0.1256673752035275</v>
       </c>
       <c r="J13">
-        <v>0.118269299015039</v>
+        <v>0.1256673752035275</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N13">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O13">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P13">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q13">
-        <v>17.35915765588078</v>
+        <v>12.24551678081478</v>
       </c>
       <c r="R13">
-        <v>156.232418902927</v>
+        <v>110.209651027333</v>
       </c>
       <c r="S13">
-        <v>0.001308052987187716</v>
+        <v>0.0009565969435433071</v>
       </c>
       <c r="T13">
-        <v>0.001308052987187716</v>
+        <v>0.0009565969435433074</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.09526533333333331</v>
+        <v>0.403756</v>
       </c>
       <c r="H14">
-        <v>0.2857959999999999</v>
+        <v>1.211268</v>
       </c>
       <c r="I14">
-        <v>0.0001461749681973058</v>
+        <v>0.0006099425681224482</v>
       </c>
       <c r="J14">
-        <v>0.0001461749681973058</v>
+        <v>0.0006099425681224483</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N14">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O14">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P14">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q14">
-        <v>0.03364714414133332</v>
+        <v>0.067203571176</v>
       </c>
       <c r="R14">
-        <v>0.3028242972719999</v>
+        <v>0.6048321405839999</v>
       </c>
       <c r="S14">
-        <v>2.535390730177315E-06</v>
+        <v>5.249817703314539E-06</v>
       </c>
       <c r="T14">
-        <v>2.535390730177315E-06</v>
+        <v>5.249817703314541E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.09526533333333331</v>
+        <v>0.403756</v>
       </c>
       <c r="H15">
-        <v>0.2857959999999999</v>
+        <v>1.211268</v>
       </c>
       <c r="I15">
-        <v>0.0001461749681973058</v>
+        <v>0.0006099425681224482</v>
       </c>
       <c r="J15">
-        <v>0.0001461749681973058</v>
+        <v>0.0006099425681224483</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.670859</v>
       </c>
       <c r="O15">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P15">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q15">
-        <v>0.1800787576404444</v>
+        <v>0.7632144488013334</v>
       </c>
       <c r="R15">
-        <v>1.620708818764</v>
+        <v>6.868930039212001</v>
       </c>
       <c r="S15">
-        <v>1.356935408561357E-05</v>
+        <v>5.962089000076218E-05</v>
       </c>
       <c r="T15">
-        <v>1.356935408561357E-05</v>
+        <v>5.96208900007622E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.09526533333333331</v>
+        <v>0.403756</v>
       </c>
       <c r="H16">
-        <v>0.2857959999999999</v>
+        <v>1.211268</v>
       </c>
       <c r="I16">
-        <v>0.0001461749681973058</v>
+        <v>0.0006099425681224482</v>
       </c>
       <c r="J16">
-        <v>0.0001461749681973058</v>
+        <v>0.0006099425681224483</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N16">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O16">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P16">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q16">
-        <v>1.704705533368444</v>
+        <v>6.918097695282667</v>
       </c>
       <c r="R16">
-        <v>15.34234980031599</v>
+        <v>62.262879257544</v>
       </c>
       <c r="S16">
-        <v>0.0001284535349814404</v>
+        <v>0.0005404288956436404</v>
       </c>
       <c r="T16">
-        <v>0.0001284535349814404</v>
+        <v>0.0005404288956436404</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.09526533333333331</v>
+        <v>0.403756</v>
       </c>
       <c r="H17">
-        <v>0.2857959999999999</v>
+        <v>1.211268</v>
       </c>
       <c r="I17">
-        <v>0.0001461749681973058</v>
+        <v>0.0006099425681224482</v>
       </c>
       <c r="J17">
-        <v>0.0001461749681973058</v>
+        <v>0.0006099425681224483</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N17">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O17">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P17">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q17">
-        <v>0.02145505502622222</v>
+        <v>0.05943517115066668</v>
       </c>
       <c r="R17">
-        <v>0.1930954952359999</v>
+        <v>0.534916540356</v>
       </c>
       <c r="S17">
-        <v>1.616688400074493E-06</v>
+        <v>4.642964774731059E-06</v>
       </c>
       <c r="T17">
-        <v>1.616688400074493E-06</v>
+        <v>4.642964774731059E-06</v>
       </c>
     </row>
   </sheetData>
